--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -1,98 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24D90A-30E0-4FC5-A146-E438E8887ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Rio Grande Do Sul</t>
-  </si>
-  <si>
-    <t>Espírito Santo</t>
-  </si>
-  <si>
-    <t>Piauí</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Pará</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Paraíba</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t>Amapá</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Number of interviewees</t>
-  </si>
-  <si>
-    <t>Proportion</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernambuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande Do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Santo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piauí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranhão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alagoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraíba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amapá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,25 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -421,230 +399,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0935676482562084</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0780295833898765</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2262</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0767403989686525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2181</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0739924005970959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.066867960374542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0649681096485276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0647984801194192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0583864839191206</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.058352558013299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.057911521237617</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1703</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0577758176143303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1488</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0504817478626679</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0476998235852897</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1376</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0466820464106392</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0406771610802008</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B17" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0395915320939069</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B18" t="n">
+        <v>692</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0234767268286063</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2758</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.3567648256208405E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2300</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.8029583389876506E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2262</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.6740398968652507E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2181</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.39924005970959E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1971</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.6867960374541999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1915</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.4968109648527603E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1910</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.4798480119419202E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1721</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.8386483919120602E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1720</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.8352558013299E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1707</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.7911521237617003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1703</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.7775817614330302E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1488</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.0481747862667903E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1406</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.7699823585289701E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1376</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.6682046410639201E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1199</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.0677161080200801E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1167</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.9591532093906902E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>692</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.3476726828606301E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>29476</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Piauí</t>
   </si>
   <si>
+    <t xml:space="preserve">Maranhão</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Catarina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maranhão</t>
   </si>
   <si>
     <t xml:space="preserve">Paraná</t>
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2758</v>
+        <v>2689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0935676482562084</v>
+        <v>0.0923198406976345</v>
       </c>
     </row>
     <row r="3">
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2300</v>
+        <v>2264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0780295833898765</v>
+        <v>0.0777285679953308</v>
       </c>
     </row>
     <row r="4">
@@ -444,10 +444,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2262</v>
+        <v>2245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0767403989686525</v>
+        <v>0.0770762522745219</v>
       </c>
     </row>
     <row r="5">
@@ -455,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2181</v>
+        <v>2167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0739924005970959</v>
+        <v>0.0743983245785697</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1971</v>
+        <v>1933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.066867960374542</v>
+        <v>0.0663645414907131</v>
       </c>
     </row>
     <row r="7">
@@ -477,10 +477,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0649681096485276</v>
+        <v>0.0647165859855117</v>
       </c>
     </row>
     <row r="8">
@@ -488,10 +488,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0647984801194192</v>
+        <v>0.0645449239537199</v>
       </c>
     </row>
     <row r="9">
@@ -499,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0583864839191206</v>
+        <v>0.058948741717307</v>
       </c>
     </row>
     <row r="10">
@@ -510,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1720</v>
+        <v>1701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.058352558013299</v>
+        <v>0.0583994232155732</v>
       </c>
     </row>
     <row r="11">
@@ -521,10 +521,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>1707</v>
+        <v>1690</v>
       </c>
       <c r="C11" t="n">
-        <v>0.057911521237617</v>
+        <v>0.0580217667456312</v>
       </c>
     </row>
     <row r="12">
@@ -532,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1703</v>
+        <v>1662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0577758176143303</v>
+        <v>0.0570604593675971</v>
       </c>
     </row>
     <row r="13">
@@ -543,10 +543,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0504817478626679</v>
+        <v>0.0508119614103753</v>
       </c>
     </row>
     <row r="14">
@@ -554,10 +554,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0476998235852897</v>
+        <v>0.0479967040889896</v>
       </c>
     </row>
     <row r="15">
@@ -565,10 +565,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0466820464106392</v>
+        <v>0.0470010643045971</v>
       </c>
     </row>
     <row r="16">
@@ -576,10 +576,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0406771610802008</v>
+        <v>0.0410615580046005</v>
       </c>
     </row>
     <row r="17">
@@ -587,10 +587,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0395915320939069</v>
+        <v>0.0398942561884162</v>
       </c>
     </row>
     <row r="18">
@@ -598,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0234767268286063</v>
+        <v>0.0236550279809112</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>29476</v>
+        <v>29127</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>

--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -1,88 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DE9BF-15E4-4AA5-9AC6-7034CBF7A220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio de Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pernambuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Grande Do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espírito Santo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piauí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maranhão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Catarina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alagoas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraíba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amapá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Rio Grande Do Sul</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
+  <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,13 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,14 +419,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,206 +443,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2689</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0923198406976345</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="1">
+        <v>9.2319840697634506E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2264</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0777285679953308</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="1">
+        <v>7.7728567995330802E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2245</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0770762522745219</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="1">
+        <v>7.7076252274521903E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2167</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0743983245785697</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="1">
+        <v>7.4398324578569694E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1933</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0663645414907131</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="1">
+        <v>6.6364541490713094E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1885</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0647165859855117</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="1">
+        <v>6.4716585985511693E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1880</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0645449239537199</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="1">
+        <v>6.4544923953719899E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1717</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.058948741717307</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="1">
+        <v>5.8948741717306997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1701</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0583994232155732</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="1">
+        <v>5.8399423215573197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1690</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0580217667456312</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="1">
+        <v>5.8021766745631198E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1662</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0570604593675971</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="1">
+        <v>5.7060459367597099E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1480</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.0508119614103753</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="1">
+        <v>5.0811961410375299E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1398</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0479967040889896</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14" s="1">
+        <v>4.7996704088989602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1369</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0470010643045971</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="1">
+        <v>4.70010643045971E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1196</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0410615580046005</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="1">
+        <v>4.1061558004600499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1162</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.0398942561884162</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17" s="1">
+        <v>3.9894256188416202E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>689</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.0236550279809112</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18" s="1">
+        <v>2.3655027980911202E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>29127</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -1,98 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DE9BF-15E4-4AA5-9AC6-7034CBF7A220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>prop</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Rio Grande Do Sul</t>
-  </si>
-  <si>
-    <t>Espírito Santo</t>
-  </si>
-  <si>
-    <t>Piauí</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Pará</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Paraíba</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t>Amapá</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pernambuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande Do Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Santo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maranhão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piauí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alagoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraíba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amapá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,23 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,20 +399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,206 +417,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>2689</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.2319840697634506E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0952086251262174</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2264</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.7728567995330802E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="n">
+        <v>2402</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0782384938601348</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>2245</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.7076252274521903E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="n">
+        <v>2353</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0766424546431712</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2167</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.4398324578569694E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="n">
+        <v>2278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0741995374743494</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>1933</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.6364541490713094E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="n">
+        <v>2063</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06719650825706</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1885</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.4716585985511693E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0662844858473665</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1880</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.4544923953719899E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0650467411484968</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>1717</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.8948741717306997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0588905898830657</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>1701</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.8399423215573197E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="n">
+        <v>1795</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0584671509071366</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>1690</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.8021766745631198E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="n">
+        <v>1757</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0572294062082668</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>1662</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.7060459367597099E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.057131689521514</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>1480</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.0811961410375299E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0499983713885541</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>1398</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.7996704088989602E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.046708576267874</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>1369</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.70010643045971E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0464154262076154</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>1196</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.1061558004600499E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.039672974821667</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>1162</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.9894256188416202E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0395752581349142</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>689</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.3655027980911202E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="n">
+        <v>709</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.023093710302596</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>29127</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" t="n">
+        <v>30701</v>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">prop</t>
   </si>
   <si>
+    <t xml:space="preserve">Minas Gerais</t>
+  </si>
+  <si>
     <t xml:space="preserve">São Paulo</t>
   </si>
   <si>
@@ -56,22 +59,49 @@
     <t xml:space="preserve">Piauí</t>
   </si>
   <si>
+    <t xml:space="preserve">Goiás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mato Grosso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pará</t>
   </si>
   <si>
+    <t xml:space="preserve">Amazonas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alagoas</t>
   </si>
   <si>
     <t xml:space="preserve">Paraíba</t>
   </si>
   <si>
+    <t xml:space="preserve">Mato Grosso do Sul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rio Grande do Norte</t>
   </si>
   <si>
     <t xml:space="preserve">Sergipe</t>
   </si>
   <si>
+    <t xml:space="preserve">Distrito Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rondônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amapá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roraima</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -422,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2923</v>
+        <v>3505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0952086251262174</v>
+        <v>0.0797533448621098</v>
       </c>
     </row>
     <row r="3">
@@ -433,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2402</v>
+        <v>2923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0782384938601348</v>
+        <v>0.0665104214071175</v>
       </c>
     </row>
     <row r="4">
@@ -444,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2353</v>
+        <v>2402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0766424546431712</v>
+        <v>0.0546555019568581</v>
       </c>
     </row>
     <row r="5">
@@ -455,10 +485,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2278</v>
+        <v>2353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0741995374743494</v>
+        <v>0.0535405479202694</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2063</v>
+        <v>2278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06719650825706</v>
+        <v>0.0518339856193683</v>
       </c>
     </row>
     <row r="7">
@@ -477,10 +507,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>2035</v>
+        <v>2063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0662844858473665</v>
+        <v>0.0469418403567853</v>
       </c>
     </row>
     <row r="8">
@@ -488,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0650467411484968</v>
+        <v>0.0463047237644489</v>
       </c>
     </row>
     <row r="9">
@@ -499,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1808</v>
+        <v>1997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0588905898830657</v>
+        <v>0.0454400655319924</v>
       </c>
     </row>
     <row r="10">
@@ -510,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1795</v>
+        <v>1808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0584671509071366</v>
+        <v>0.0411395285337217</v>
       </c>
     </row>
     <row r="11">
@@ -521,10 +551,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>1757</v>
+        <v>1795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572294062082668</v>
+        <v>0.0408437244015655</v>
       </c>
     </row>
     <row r="12">
@@ -532,10 +562,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="C12" t="n">
-        <v>0.057131689521514</v>
+        <v>0.0399790661691089</v>
       </c>
     </row>
     <row r="13">
@@ -543,10 +573,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1535</v>
+        <v>1754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0499983713885541</v>
+        <v>0.0399108036770729</v>
       </c>
     </row>
     <row r="14">
@@ -554,10 +584,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1434</v>
+        <v>1691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.046708576267874</v>
+        <v>0.038477291344316</v>
       </c>
     </row>
     <row r="15">
@@ -565,10 +595,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>1425</v>
+        <v>1537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0464154262076154</v>
+        <v>0.0349731500864658</v>
       </c>
     </row>
     <row r="16">
@@ -576,10 +606,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1218</v>
+        <v>1535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.039672974821667</v>
+        <v>0.0349276417584418</v>
       </c>
     </row>
     <row r="17">
@@ -587,10 +617,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1215</v>
+        <v>1500</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0395752581349142</v>
+        <v>0.0341312460180213</v>
       </c>
     </row>
     <row r="18">
@@ -598,10 +628,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>709</v>
+        <v>1434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.023093710302596</v>
+        <v>0.0326294711932284</v>
       </c>
     </row>
     <row r="19">
@@ -609,9 +639,119 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>30701</v>
+        <v>1425</v>
       </c>
       <c r="C19" t="n">
+        <v>0.0324246837171202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0292846090834623</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0277145717666333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0276463092745973</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>980</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0222990807317739</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>737</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0167698188768545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0166332938927824</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>709</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0161327022845181</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>662</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0150632565759534</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>617</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0140393191954128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43948</v>
+      </c>
+      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output/state_interviewees.xlsx
+++ b/output/state_interviewees.xlsx
@@ -1,118 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE336C-BF32-496F-8487-D74DEBFF36DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minas Gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio de Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pernambuco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Grande Do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espírito Santo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Catarina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maranhão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piauí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goiás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alagoas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraíba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrito Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondônia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amapá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tocantins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roraima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Rio Grande Do Sul</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Piauí</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Pará</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Alagoas</t>
+  </si>
+  <si>
+    <t>Paraíba</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Rondônia</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>Amapá</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Roraima</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Number of interviewees</t>
+  </si>
+  <si>
+    <t>Proportion of the total</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,13 +151,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,334 +449,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>3505</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.9753344862109804E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>2923</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.6510421407117506E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>2402</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.4655501956858102E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>3505</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0797533448621098</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>2353</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.3540547920269403E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>2923</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0665104214071175</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>2278</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1833985619368299E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>2402</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0546555019568581</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>2063</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.6941840356785301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>2353</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0535405479202694</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>2035</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.6304723764448899E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>2278</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0518339856193683</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>1997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.5440065531992403E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>2063</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0469418403567853</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>1808</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.11395285337217E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>2035</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0463047237644489</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B11">
+        <v>1795</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0843724401565501E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0454400655319924</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>1757</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.9979066169108901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>1808</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0411395285337217</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>1754</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.9910803677072899E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
-        <v>1795</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0408437244015655</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>1691</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.8477291344316003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
-        <v>1757</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0399790661691089</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>1537</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4973150086465801E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="n">
-        <v>1754</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0399108036770729</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>1535</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.4927641758441798E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="n">
-        <v>1691</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.038477291344316</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B17">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.4131246018021297E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
-        <v>1537</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0349731500864658</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B18">
+        <v>1434</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.2629471193228399E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="n">
-        <v>1535</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0349276417584418</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B19">
+        <v>1425</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.2424683717120199E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0341312460180213</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B20">
+        <v>1287</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.9284609083462299E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="n">
-        <v>1434</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0326294711932284</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B21">
+        <v>1218</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.7714571766633299E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
-        <v>1425</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0324246837171202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="B22">
+        <v>1215</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.7646309274597301E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0292846090834623</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B23">
+        <v>980</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.2299080731773901E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="n">
-        <v>1218</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0277145717666333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="B24">
+        <v>737</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.6769818876854501E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="n">
-        <v>1215</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0276463092745973</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B25">
+        <v>731</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.66332938927824E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="n">
-        <v>980</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0222990807317739</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B26">
+        <v>709</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.6132702284518099E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="n">
-        <v>737</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0167698188768545</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="B27">
+        <v>662</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.50632565759534E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="n">
-        <v>731</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0166332938927824</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="B28">
+        <v>617</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.40393191954128E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="n">
-        <v>709</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0161327022845181</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="n">
-        <v>662</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0150632565759534</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="n">
-        <v>617</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0140393191954128</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>43948</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>